--- a/scripts/translations/spreadsheets_src/translations_zh-hans.xlsx
+++ b/scripts/translations/spreadsheets_src/translations_zh-hans.xlsx
@@ -55,10 +55,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,12 +450,12 @@
           <t>Key</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>EN Translation</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>ZH-HANS Translation</t>
         </is>
@@ -458,631 +464,613 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>about-the-program</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>About the program</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>关于该计划</t>
-        </is>
-      </c>
+          <t>ADU considerations</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>ADU considerations</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sign-up-now</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Sign up now</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>立即注册</t>
-        </is>
-      </c>
+          <t>Accountable utilities and buried lines</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Accountable utilities and buried lines</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>official-website-prefix</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Official website of the</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>官方网站</t>
-        </is>
-      </c>
+          <t>Affordability, density, and fire-safe rebuilding</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Affordability, density, and fire-safe rebuilding</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>state-of-california</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>State of California</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>加利福尼亚州</t>
-        </is>
-      </c>
+          <t>Altadena infrastructure</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Altadena infrastructure</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>how-it-works</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>How it works</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>如何运作</t>
-        </is>
-      </c>
+          <t>Altadena-specific concerns</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Altadena-specific concerns</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>how-it-works-step-1</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>You opt in to a topic</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>您选择加入主题</t>
-        </is>
-      </c>
+          <t>Broadband access</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Broadband access</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>how-it-works-step-2</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>We invite you to join</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>我们邀请您加入</t>
-        </is>
-      </c>
+          <t>Building code and permitting reform</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Building code and permitting reform</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>how-it-works-step-3</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>You share your thoughts</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>分享您的想法</t>
-        </is>
-      </c>
+          <t>Climate &amp; community resilience</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Climate &amp; community resilience</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>how-it-works-step-4</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>We share results</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>我们分享结果</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Climate resilient infrastructure </t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Climate resilient infrastructure </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>join-the-conversation</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Join the conversation</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>加入对话</t>
-        </is>
-      </c>
+          <t>Community preparedness</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Community preparedness</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>how-it-works-alt-1</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>An icon of a group of people</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>一群人的标志</t>
-        </is>
-      </c>
+          <t>Controlled burn management</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Controlled burn management</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>how-it-works-alt-2</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>An icon of a government building</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>政府大楼的标志</t>
-        </is>
-      </c>
+          <t>Counseling access through healthcare</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Counseling access through healthcare</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>join-the-conversation-form-label</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Give us your email. We’ll notify you when topics open.</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>请提供您的电子邮件地址。当主题开放时我们会通知您。</t>
-        </is>
-      </c>
+          <t>Debris removal &amp; environmental recovery</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Debris removal &amp; environmental recovery</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>back-to-top</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Back to top</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>返回顶部</t>
-        </is>
-      </c>
+          <t>Economic recovery &amp; small business support</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Economic recovery &amp; small business support</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>email-label</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>电子邮件</t>
-        </is>
-      </c>
+          <t>Emergency alert apps</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>Emergency alert apps</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>required-label</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Required field</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>必须填写的字段</t>
-        </is>
-      </c>
+          <t>Emergency alert systems</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Emergency alert systems</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>topics-interests-label</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Tell us what you’re interested in</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>我感兴趣的主题：</t>
-        </is>
-      </c>
+          <t>Emergency communication</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Emergency communication</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>topic-future-topics</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Future topics</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">未来主题 </t>
-        </is>
-      </c>
+          <t>Emergency planning &amp; community safety</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Emergency planning &amp; community safety</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>topic-los-angeles-fires-recovery-palisades</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Los Angeles fires recovery: Palisades</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>洛杉磯火災恢復： 帕利塞兹 (Palisades)</t>
-        </is>
-      </c>
+          <t>Emergency response improvements</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Emergency response improvements</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>topic-los-angeles-fires-recovery-eaton</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Los Angeles fires recovery: Eaton</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>洛杉矶火灾恢复: 伊顿 (Eaton)</t>
-        </is>
-      </c>
+          <t>Emergency warning systems</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Emergency warning systems</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>valid-email-message</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Please enter a valid email address.</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>请输入有效的电子邮件地址。</t>
-        </is>
-      </c>
+          <t>Emotional &amp; mental health support</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Emotional &amp; mental health support</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>valid-email-message-2</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Email addresses should contain a "@" and a "."</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>电子邮件地址应包含“@”和“.”</t>
-        </is>
-      </c>
+          <t>Evacuation planning</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>Evacuation planning</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>form-problem-message</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>We're sorry, there's a problem with our form.</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>很抱歉，我们的表格有问题。</t>
-        </is>
-      </c>
+          <t>Financial &amp; legal assistance</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Financial &amp; legal assistance</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>form-problem-message-2</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Please try again later.</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>请稍后再试。</t>
-        </is>
-      </c>
+          <t>Financial relief navigation</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Financial relief navigation</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>form-submit-button</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Sign up now</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>立即注册</t>
-        </is>
-      </c>
+          <t>Fire resistant building and landscaping</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>Fire resistant building and landscaping</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>form-success-message</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Your subscription is confirmed.</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>您的订阅已确认。</t>
-        </is>
-      </c>
+          <t>Fire-safe home enforcement</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Fire-safe home enforcement</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>form-success-message-2</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Thank you for signing up! Look out for news and updates.</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>感谢您注册！留意新闻和更新。</t>
-        </is>
-      </c>
+          <t>Fire-safe infrastructure management</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Fire-safe infrastructure management</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>privacy-policy</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Privacy policy</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>隐私政策</t>
-        </is>
-      </c>
+          <t>Free emergency counseling</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>Free emergency counseling</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>website-accessibility-certification</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Accessibility</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>无障碍访问</t>
-        </is>
-      </c>
+          <t>Government fire prevention accountability</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Government fire prevention accountability</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>form-privacy-message</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>We take your &lt;a href="/privacy"&gt;privacy&lt;/a&gt; seriously.</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>我们非常重视您的&lt;a href="/zh-hans/privacy"&gt;隐私&lt;/a&gt;。</t>
-        </is>
-      </c>
+          <t>Grant distribution oversight</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>Grant distribution oversight</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>form-privacy-message-2</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>You can unsubscribe at any time.</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>您可以随时取消订阅。</t>
-        </is>
-      </c>
+          <t>Habitat restoration and natural fire prevention</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Habitat restoration and natural fire prevention</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>home-alt-header</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Circles with thumbs up, text bubble, and exclamation point</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>带有竖起大拇指、文本气泡和感叹号的圆圈</t>
-        </is>
-      </c>
+          <t>Housing and rebuilding</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>Housing and rebuilding</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>home-alt-header-about</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Circles with exclamation point and question mark</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>带感叹号和问号的圆圈</t>
-        </is>
-      </c>
+          <t>Importance of supporting local businesses</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Importance of supporting local businesses</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>about-alt-header</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Circles with megaphone, microphone, and chat bubbles</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>带有扩音器、麦克风和聊天气泡的圆圈</t>
-        </is>
-      </c>
+          <t>Incentives for small business recovery</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>Incentives for small business recovery</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>about-this-program</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>About the program</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>关于该计划</t>
-        </is>
-      </c>
+          <t>Infrastructure &amp; utilities restoration</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Infrastructure &amp; utilities restoration</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>conditions-of-use</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Conditions of use</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>使用条款</t>
-        </is>
-      </c>
+          <t>Insurance reform</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Insurance reform</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>sitemap</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Sitemap</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>网站地图</t>
-        </is>
-      </c>
+          <t>Mental health support</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Mental health support</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Next-gen wildfire readiness</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>Next-gen wildfire readiness</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Post-emergency communications</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>Post-emergency communications</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Satisfied with debris removal</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>Satisfied with debris removal</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Soil and other environmental testing</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Soil and other environmental testing</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Streamline rebuilding process</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>Streamline rebuilding process</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Temporary housing</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>Temporary housing</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Underground power lines</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Underground power lines</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Wildfire prevention prioritization &amp; accountability</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>Wildfire prevention prioritization &amp; accountability</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Conversation groups</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Conversation groups</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
